--- a/affectation_pfa2019.xlsx
+++ b/affectation_pfa2019.xlsx
@@ -13,15 +13,65 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Affectation Des PFA GL2 2019</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Titre</t>
+  </si>
+  <si>
+    <t>Etudiant</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Najla Nasfi</t>
+  </si>
+  <si>
+    <t>Wejdene Berriche</t>
+  </si>
+  <si>
+    <t>Olfa Hlali</t>
+  </si>
+  <si>
+    <t>Haifa Thabti</t>
+  </si>
+  <si>
+    <t>Hichem Farhat</t>
+  </si>
+  <si>
+    <t>Houssem Makhelbi</t>
+  </si>
+  <si>
+    <t>Rim Hrichi</t>
+  </si>
+  <si>
+    <t>Mouadh Zidi</t>
+  </si>
+  <si>
+    <t>Iheb Hamrouni</t>
+  </si>
+  <si>
+    <t>Firas Abdennaji</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,6 +80,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="DejaVu Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DejaVu Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DejaVu Serif"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -39,9 +131,47 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -53,6 +183,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -62,45 +223,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,60 +239,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,49 +260,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,133 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,6 +451,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -416,13 +504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,21 +530,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,153 +556,177 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,14 +1048,156 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="75" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/affectation_pfa2019.xlsx
+++ b/affectation_pfa2019.xlsx
@@ -66,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -116,13 +116,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -131,29 +124,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,6 +138,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -175,6 +153,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -185,15 +193,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,15 +230,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,28 +246,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,17 +451,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -519,6 +508,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -533,167 +551,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -701,7 +701,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,9 +711,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -721,12 +718,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1058,141 +1049,142 @@
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="75" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
